--- a/electronics-sync-pulser/sync-pulser-BOM_2017_6_5.xlsx
+++ b/electronics-sync-pulser/sync-pulser-BOM_2017_6_5.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eric\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14625"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="8640"/>
   </bookViews>
   <sheets>
     <sheet name="RFswitch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="108">
   <si>
     <t>#</t>
   </si>
@@ -311,6 +316,33 @@
   </si>
   <si>
     <t>cap, generic ceramic 0805</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/analog-devices-inc/ADG918BCPZ-REEL7/ADG918BCPZ-REEL7CT-ND/1207281</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/murata-electronics-north-america/BLM18TG102TN1D/490-9701-1-ND/4934841</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/vishay-dale/CRCW060316R5FKEA/541-16.5HCT-ND/1179604</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RC0603FR-071KL/311-1.00KHRCT-ND/729790</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RC0402JR-070RL/311-0.0JRCT-ND/729353</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/murata-electronics-north-america/GRM155R71C104KA88J/490-6328-1-ND/3845525</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/murata-electronics-north-america/GRM188R71C104KA01D/490-1532-1-ND/587771</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/murata-electronics-north-america/GRM188R60J106ME47D/490-3896-1-ND/965938</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/murata-electronics-north-america/GRM219R60J106KE19D/490-3340-6-ND/1788792</t>
   </si>
 </sst>
 </file>
@@ -366,6 +398,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -413,7 +448,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,7 +483,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -659,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +706,7 @@
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -714,6 +749,9 @@
       <c r="E2">
         <v>8</v>
       </c>
+      <c r="G2" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -811,6 +849,9 @@
       <c r="F10" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="G10" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -878,7 +919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -889,7 +930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -900,7 +941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>23</v>
       </c>
@@ -911,7 +952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>24</v>
       </c>
@@ -922,7 +963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -939,7 +980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -955,8 +996,11 @@
       <c r="E22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -973,7 +1017,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
@@ -987,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>7</v>
       </c>
@@ -1000,8 +1044,11 @@
       <c r="E25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>35</v>
       </c>
@@ -1009,7 +1056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>36</v>
       </c>
@@ -1017,7 +1064,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>37</v>
       </c>
@@ -1025,7 +1072,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>38</v>
       </c>
@@ -1033,7 +1080,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>39</v>
       </c>
@@ -1041,7 +1088,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>40</v>
       </c>
@@ -1049,7 +1096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>41</v>
       </c>
@@ -1057,7 +1104,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -1073,8 +1120,11 @@
       <c r="E33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -1091,7 +1141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10</v>
       </c>
@@ -1108,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>11</v>
       </c>
@@ -1124,8 +1174,11 @@
       <c r="E36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>12</v>
       </c>
@@ -1141,8 +1194,11 @@
       <c r="E37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>49</v>
       </c>
@@ -1156,7 +1212,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>13</v>
       </c>
@@ -1172,8 +1228,11 @@
       <c r="E39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>51</v>
       </c>
@@ -1184,7 +1243,7 @@
         <v>16.670000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>52</v>
       </c>
@@ -1195,7 +1254,7 @@
         <v>16.670000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>14</v>
       </c>
@@ -1215,7 +1274,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>54</v>
       </c>
@@ -1229,7 +1288,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>15</v>
       </c>
@@ -1248,8 +1307,11 @@
       <c r="F44" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>56</v>
       </c>
@@ -1263,7 +1325,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>57</v>
       </c>
@@ -1277,7 +1339,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>58</v>
       </c>
@@ -1291,7 +1353,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>59</v>
       </c>

--- a/electronics-sync-pulser/sync-pulser-BOM_2017_6_5.xlsx
+++ b/electronics-sync-pulser/sync-pulser-BOM_2017_6_5.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="112">
   <si>
     <t>#</t>
   </si>
@@ -288,9 +288,6 @@
     <t>resistor, generic chip 0603</t>
   </si>
   <si>
-    <t>0 ohm</t>
-  </si>
-  <si>
     <t>Put ferrite here</t>
   </si>
   <si>
@@ -343,6 +340,21 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/murata-electronics-north-america/GRM219R60J106KE19D/490-3340-6-ND/1788792</t>
+  </si>
+  <si>
+    <t>put 0.05 ohm resistor</t>
+  </si>
+  <si>
+    <t>DK: A120734-ND</t>
+  </si>
+  <si>
+    <t>DK: ARFX1229-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DK:  732-1641-1-ND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DK: WSLE-.05CT-ND </t>
   </si>
 </sst>
 </file>
@@ -694,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +741,7 @@
         <v>86</v>
       </c>
       <c r="G1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -750,7 +762,7 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -850,7 +862,7 @@
         <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -997,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1045,7 +1057,7 @@
         <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1112,7 +1124,7 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
@@ -1121,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1134,11 +1146,14 @@
       <c r="C34" t="s">
         <v>44</v>
       </c>
-      <c r="D34" t="s">
-        <v>90</v>
-      </c>
       <c r="E34">
         <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1151,11 +1166,14 @@
       <c r="C35" t="s">
         <v>44</v>
       </c>
-      <c r="D35" t="s">
-        <v>89</v>
-      </c>
       <c r="E35">
         <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1175,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1195,7 +1213,7 @@
         <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1229,7 +1247,7 @@
         <v>3</v>
       </c>
       <c r="G39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1299,16 +1317,16 @@
         <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E44">
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1319,10 +1337,10 @@
         <v>88</v>
       </c>
       <c r="D45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" t="s">
         <v>91</v>
-      </c>
-      <c r="F45" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1333,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="D46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1347,10 +1365,10 @@
         <v>88</v>
       </c>
       <c r="D47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1361,13 +1379,13 @@
         <v>88</v>
       </c>
       <c r="D48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
       </c>
-      <c r="F48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>60</v>
       </c>
@@ -1375,13 +1393,13 @@
         <v>88</v>
       </c>
       <c r="D49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" t="s">
         <v>91</v>
       </c>
-      <c r="F49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>61</v>
       </c>
@@ -1389,13 +1407,13 @@
         <v>88</v>
       </c>
       <c r="D50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" t="s">
         <v>91</v>
       </c>
-      <c r="F50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>62</v>
       </c>
@@ -1403,13 +1421,13 @@
         <v>88</v>
       </c>
       <c r="D51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" t="s">
         <v>91</v>
       </c>
-      <c r="F51" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>16</v>
       </c>
@@ -1423,10 +1441,10 @@
         <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>65</v>
       </c>
@@ -1434,10 +1452,10 @@
         <v>64</v>
       </c>
       <c r="F53" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>17</v>
       </c>
@@ -1445,69 +1463,72 @@
         <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E54">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>79</v>
       </c>
       <c r="C56" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>18</v>
       </c>
@@ -1515,26 +1536,29 @@
         <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E62">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>78</v>
       </c>
       <c r="C63" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>81</v>
       </c>
       <c r="C64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1542,7 +1566,7 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1550,7 +1574,7 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1558,7 +1582,7 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1566,7 +1590,7 @@
         <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1574,7 +1598,7 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1585,7 +1609,7 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -1596,7 +1620,7 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/electronics-sync-pulser/sync-pulser-BOM_2017_6_5.xlsx
+++ b/electronics-sync-pulser/sync-pulser-BOM_2017_6_5.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="114">
   <si>
     <t>#</t>
   </si>
@@ -355,13 +355,19 @@
   </si>
   <si>
     <t xml:space="preserve">DK: WSLE-.05CT-ND </t>
+  </si>
+  <si>
+    <t>Packed</t>
+  </si>
+  <si>
+    <t>install on 'IN' side</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +378,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -397,9 +411,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,25 +719,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="64" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -738,14 +754,17 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" t="s">
         <v>86</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <f>1</f>
         <v>1</v>
       </c>
@@ -761,11 +780,11 @@
       <c r="E2">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -776,7 +795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -787,7 +806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -798,7 +817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -809,7 +828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -820,7 +839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -831,7 +850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -842,8 +861,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>2</v>
       </c>
       <c r="B10" t="s">
@@ -858,14 +877,14 @@
       <c r="E10">
         <v>11</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -876,7 +895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -887,7 +906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -898,7 +917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -909,7 +928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>19</v>
       </c>
@@ -920,7 +939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -931,7 +950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -942,7 +961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -953,7 +972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>23</v>
       </c>
@@ -964,7 +983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>24</v>
       </c>
@@ -975,8 +994,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>3</v>
       </c>
       <c r="B21" t="s">
@@ -992,8 +1011,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>4</v>
       </c>
       <c r="B22" t="s">
@@ -1008,12 +1027,12 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>5</v>
       </c>
       <c r="B23" t="s">
@@ -1025,12 +1044,12 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>6</v>
       </c>
       <c r="B24" t="s">
@@ -1043,8 +1062,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>7</v>
       </c>
       <c r="B25" t="s">
@@ -1056,11 +1075,11 @@
       <c r="E25">
         <v>8</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>35</v>
       </c>
@@ -1068,7 +1087,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>36</v>
       </c>
@@ -1076,7 +1095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>37</v>
       </c>
@@ -1084,7 +1103,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>38</v>
       </c>
@@ -1092,7 +1111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>39</v>
       </c>
@@ -1100,7 +1119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>40</v>
       </c>
@@ -1108,7 +1127,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>41</v>
       </c>
@@ -1116,8 +1135,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>8</v>
       </c>
       <c r="B33" t="s">
@@ -1132,12 +1151,12 @@
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>9</v>
       </c>
       <c r="B34" t="s">
@@ -1149,15 +1168,15 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>107</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>10</v>
       </c>
       <c r="B35" t="s">
@@ -1169,15 +1188,15 @@
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>89</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>11</v>
       </c>
       <c r="B36" t="s">
@@ -1192,12 +1211,12 @@
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>12</v>
       </c>
       <c r="B37" t="s">
@@ -1212,11 +1231,11 @@
       <c r="E37">
         <v>2</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>49</v>
       </c>
@@ -1226,12 +1245,12 @@
       <c r="D38" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>13</v>
       </c>
       <c r="B39" t="s">
@@ -1246,11 +1265,11 @@
       <c r="E39">
         <v>3</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>51</v>
       </c>
@@ -1261,7 +1280,7 @@
         <v>16.670000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>52</v>
       </c>
@@ -1272,8 +1291,8 @@
         <v>16.670000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>14</v>
       </c>
       <c r="B42" t="s">
@@ -1288,11 +1307,11 @@
       <c r="E42">
         <v>2</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>54</v>
       </c>
@@ -1302,12 +1321,12 @@
       <c r="D43">
         <v>240</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>15</v>
       </c>
       <c r="B44" t="s">
@@ -1322,14 +1341,14 @@
       <c r="E44">
         <v>8</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>91</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>56</v>
       </c>
@@ -1339,11 +1358,11 @@
       <c r="D45" t="s">
         <v>90</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>57</v>
       </c>
@@ -1353,11 +1372,11 @@
       <c r="D46" t="s">
         <v>90</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>58</v>
       </c>
@@ -1367,11 +1386,11 @@
       <c r="D47" t="s">
         <v>90</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>59</v>
       </c>
@@ -1381,11 +1400,11 @@
       <c r="D48" t="s">
         <v>90</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>60</v>
       </c>
@@ -1395,11 +1414,11 @@
       <c r="D49" t="s">
         <v>90</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>61</v>
       </c>
@@ -1409,11 +1428,11 @@
       <c r="D50" t="s">
         <v>90</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>62</v>
       </c>
@@ -1423,12 +1442,12 @@
       <c r="D51" t="s">
         <v>90</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
         <v>16</v>
       </c>
       <c r="B52" t="s">
@@ -1440,23 +1459,23 @@
       <c r="E52">
         <v>2</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>65</v>
       </c>
       <c r="C53" t="s">
         <v>64</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
         <v>17</v>
       </c>
       <c r="B54" t="s">
@@ -1469,67 +1488,91 @@
         <v>8</v>
       </c>
       <c r="G54" t="s">
+        <v>113</v>
+      </c>
+      <c r="H54" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>76</v>
       </c>
       <c r="C55" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>79</v>
       </c>
       <c r="C56" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>82</v>
       </c>
       <c r="C57" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>66</v>
       </c>
       <c r="C58" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>77</v>
       </c>
       <c r="C59" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>80</v>
       </c>
       <c r="C60" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>69</v>
       </c>
       <c r="C61" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="G61" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
         <v>18</v>
       </c>
       <c r="B62" t="s">
@@ -1541,11 +1584,11 @@
       <c r="E62">
         <v>8</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>78</v>
       </c>
@@ -1553,7 +1596,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>81</v>
       </c>
@@ -1602,7 +1645,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="2">
         <v>19</v>
       </c>
       <c r="B70" t="s">
